--- a/Resultados/RESULTADOS_14.xlsx
+++ b/Resultados/RESULTADOS_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.74</v>
+        <v>1.15</v>
       </c>
       <c r="E2" t="n">
-        <v>57.51</v>
+        <v>87.06999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>49.34</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.08</v>
+        <v>1.66</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>60.22</v>
       </c>
       <c r="F3" t="n">
         <v>41.83</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="E4" t="n">
-        <v>40.69</v>
+        <v>47.58</v>
       </c>
       <c r="F4" t="n">
         <v>35.86</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="E5" t="n">
-        <v>37.87</v>
+        <v>42.67</v>
       </c>
       <c r="F5" t="n">
         <v>33.56</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.75</v>
+        <v>2.49</v>
       </c>
       <c r="E6" t="n">
-        <v>36.4</v>
+        <v>40.09</v>
       </c>
       <c r="F6" t="n">
         <v>32.37</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="E7" t="n">
-        <v>35.45</v>
+        <v>38.43</v>
       </c>
       <c r="F7" t="n">
         <v>31.6</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.88</v>
+        <v>2.69</v>
       </c>
       <c r="E8" t="n">
-        <v>34.71</v>
+        <v>37.2</v>
       </c>
       <c r="F8" t="n">
         <v>30.98</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.88</v>
+        <v>2.71</v>
       </c>
       <c r="E9" t="n">
-        <v>34.68</v>
+        <v>36.86</v>
       </c>
       <c r="F9" t="n">
         <v>31.03</v>
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.93</v>
+        <v>2.78</v>
       </c>
       <c r="E10" t="n">
-        <v>34.12</v>
+        <v>35.99</v>
       </c>
       <c r="F10" t="n">
         <v>30.54</v>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="E11" t="n">
-        <v>33.87</v>
+        <v>35.56</v>
       </c>
       <c r="F11" t="n">
         <v>30.34</v>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.97</v>
+        <v>2.85</v>
       </c>
       <c r="E12" t="n">
-        <v>33.63</v>
+        <v>35.14</v>
       </c>
       <c r="F12" t="n">
         <v>30.15</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.99</v>
+        <v>2.87</v>
       </c>
       <c r="E13" t="n">
-        <v>33.42</v>
+        <v>34.8</v>
       </c>
       <c r="F13" t="n">
         <v>29.97</v>
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.01</v>
+        <v>2.9</v>
       </c>
       <c r="E14" t="n">
-        <v>33.23</v>
+        <v>34.47</v>
       </c>
       <c r="F14" t="n">
         <v>29.81</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
       <c r="E15" t="n">
-        <v>32.97</v>
+        <v>34.13</v>
       </c>
       <c r="F15" t="n">
         <v>29.57</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3.02</v>
+        <v>2.92</v>
       </c>
       <c r="E16" t="n">
-        <v>33.15</v>
+        <v>34.22</v>
       </c>
       <c r="F16" t="n">
         <v>29.78</v>
@@ -1787,6 +1787,1236 @@
         <v>1</v>
       </c>
       <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>150</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E17" t="n">
+        <v>33.92</v>
+      </c>
+      <c r="F17" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="G17" t="n">
+        <v>73.97</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>329.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L17" t="n">
+        <v>16</v>
+      </c>
+      <c r="M17" t="n">
+        <v>22</v>
+      </c>
+      <c r="N17" t="n">
+        <v>101.88</v>
+      </c>
+      <c r="O17" t="n">
+        <v>40897.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>508.81</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R17" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="S17" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T17" t="n">
+        <v>18992.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X17" t="n">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>150</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>33.82</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="G18" t="n">
+        <v>77.08</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23</v>
+      </c>
+      <c r="J18" t="n">
+        <v>332.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L18" t="n">
+        <v>17</v>
+      </c>
+      <c r="M18" t="n">
+        <v>21</v>
+      </c>
+      <c r="N18" t="n">
+        <v>103.23</v>
+      </c>
+      <c r="O18" t="n">
+        <v>41187.41</v>
+      </c>
+      <c r="P18" t="n">
+        <v>507</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R18" t="n">
+        <v>137.48</v>
+      </c>
+      <c r="S18" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>18336.86</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>81.47</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>150</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E19" t="n">
+        <v>33.74</v>
+      </c>
+      <c r="F19" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="G19" t="n">
+        <v>80.51000000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>334.43</v>
+      </c>
+      <c r="K19" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>104.61</v>
+      </c>
+      <c r="O19" t="n">
+        <v>41480.31</v>
+      </c>
+      <c r="P19" t="n">
+        <v>504.24</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R19" t="n">
+        <v>136.69</v>
+      </c>
+      <c r="S19" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T19" t="n">
+        <v>17948.33</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>150</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E20" t="n">
+        <v>33.48</v>
+      </c>
+      <c r="F20" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="G20" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I20" t="n">
+        <v>20</v>
+      </c>
+      <c r="J20" t="n">
+        <v>336.82</v>
+      </c>
+      <c r="K20" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L20" t="n">
+        <v>19</v>
+      </c>
+      <c r="M20" t="n">
+        <v>18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>106</v>
+      </c>
+      <c r="O20" t="n">
+        <v>41775.82</v>
+      </c>
+      <c r="P20" t="n">
+        <v>500.64</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R20" t="n">
+        <v>131.47</v>
+      </c>
+      <c r="S20" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T20" t="n">
+        <v>15348.44</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>83.36</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>150</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>33.37</v>
+      </c>
+      <c r="F21" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="G21" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19</v>
+      </c>
+      <c r="J21" t="n">
+        <v>339.24</v>
+      </c>
+      <c r="K21" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17</v>
+      </c>
+      <c r="N21" t="n">
+        <v>107.42</v>
+      </c>
+      <c r="O21" t="n">
+        <v>42074.12</v>
+      </c>
+      <c r="P21" t="n">
+        <v>498.37</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R21" t="n">
+        <v>129.66</v>
+      </c>
+      <c r="S21" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T21" t="n">
+        <v>14445.91</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>84.18000000000001</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>150</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E22" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="G22" t="n">
+        <v>97.37</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>341.68</v>
+      </c>
+      <c r="K22" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L22" t="n">
+        <v>21</v>
+      </c>
+      <c r="M22" t="n">
+        <v>16</v>
+      </c>
+      <c r="N22" t="n">
+        <v>108.86</v>
+      </c>
+      <c r="O22" t="n">
+        <v>42375.31</v>
+      </c>
+      <c r="P22" t="n">
+        <v>494.76</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R22" t="n">
+        <v>126.3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T22" t="n">
+        <v>12768.9</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="X22" t="n">
+        <v>84.88</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>150</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="G23" t="n">
+        <v>97.76000000000001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18</v>
+      </c>
+      <c r="J23" t="n">
+        <v>344.15</v>
+      </c>
+      <c r="K23" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22</v>
+      </c>
+      <c r="M23" t="n">
+        <v>16</v>
+      </c>
+      <c r="N23" t="n">
+        <v>110.33</v>
+      </c>
+      <c r="O23" t="n">
+        <v>42679.6</v>
+      </c>
+      <c r="P23" t="n">
+        <v>494.17</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R23" t="n">
+        <v>130.18</v>
+      </c>
+      <c r="S23" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T23" t="n">
+        <v>14709.87</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X23" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>150</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E24" t="n">
+        <v>33.22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="G24" t="n">
+        <v>103.32</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>346.64</v>
+      </c>
+      <c r="K24" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L24" t="n">
+        <v>23</v>
+      </c>
+      <c r="M24" t="n">
+        <v>15</v>
+      </c>
+      <c r="N24" t="n">
+        <v>111.82</v>
+      </c>
+      <c r="O24" t="n">
+        <v>42986.83</v>
+      </c>
+      <c r="P24" t="n">
+        <v>493.74</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R24" t="n">
+        <v>128.29</v>
+      </c>
+      <c r="S24" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>13772.18</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X24" t="n">
+        <v>86.48</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>150</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E25" t="n">
+        <v>33.09</v>
+      </c>
+      <c r="F25" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="G25" t="n">
+        <v>109.53</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>16</v>
+      </c>
+      <c r="J25" t="n">
+        <v>349.16</v>
+      </c>
+      <c r="K25" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L25" t="n">
+        <v>24</v>
+      </c>
+      <c r="M25" t="n">
+        <v>14</v>
+      </c>
+      <c r="N25" t="n">
+        <v>113.34</v>
+      </c>
+      <c r="O25" t="n">
+        <v>43297.21</v>
+      </c>
+      <c r="P25" t="n">
+        <v>491.09</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R25" t="n">
+        <v>126.03</v>
+      </c>
+      <c r="S25" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T25" t="n">
+        <v>12646.92</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X25" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>150</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E26" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="F26" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="G26" t="n">
+        <v>116.56</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I26" t="n">
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>351.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L26" t="n">
+        <v>25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>13</v>
+      </c>
+      <c r="N26" t="n">
+        <v>114.88</v>
+      </c>
+      <c r="O26" t="n">
+        <v>43610.83</v>
+      </c>
+      <c r="P26" t="n">
+        <v>487.38</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R26" t="n">
+        <v>123.63</v>
+      </c>
+      <c r="S26" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T26" t="n">
+        <v>11450.47</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X26" t="n">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>150</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E27" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="F27" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="G27" t="n">
+        <v>116.62</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15</v>
+      </c>
+      <c r="J27" t="n">
+        <v>354.27</v>
+      </c>
+      <c r="K27" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26</v>
+      </c>
+      <c r="M27" t="n">
+        <v>13</v>
+      </c>
+      <c r="N27" t="n">
+        <v>116.45</v>
+      </c>
+      <c r="O27" t="n">
+        <v>43927.95</v>
+      </c>
+      <c r="P27" t="n">
+        <v>486.64</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R27" t="n">
+        <v>124.15</v>
+      </c>
+      <c r="S27" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T27" t="n">
+        <v>11712.6</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X27" t="n">
+        <v>88.48</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>150</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E28" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="G28" t="n">
+        <v>124.26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>356.87</v>
+      </c>
+      <c r="K28" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L28" t="n">
+        <v>27</v>
+      </c>
+      <c r="M28" t="n">
+        <v>12</v>
+      </c>
+      <c r="N28" t="n">
+        <v>118.05</v>
+      </c>
+      <c r="O28" t="n">
+        <v>44248.41</v>
+      </c>
+      <c r="P28" t="n">
+        <v>481.9</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R28" t="n">
+        <v>118.63</v>
+      </c>
+      <c r="S28" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T28" t="n">
+        <v>8957.93</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="X28" t="n">
+        <v>88.97</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>150</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E29" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="G29" t="n">
+        <v>124.83</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L29" t="n">
+        <v>28</v>
+      </c>
+      <c r="M29" t="n">
+        <v>12</v>
+      </c>
+      <c r="N29" t="n">
+        <v>119.68</v>
+      </c>
+      <c r="O29" t="n">
+        <v>44572.45</v>
+      </c>
+      <c r="P29" t="n">
+        <v>482.97</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R29" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T29" t="n">
+        <v>11342.77</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="X29" t="n">
+        <v>89.59</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>150</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="G30" t="n">
+        <v>134.21</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13</v>
+      </c>
+      <c r="J30" t="n">
+        <v>362.16</v>
+      </c>
+      <c r="K30" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L30" t="n">
+        <v>29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>11</v>
+      </c>
+      <c r="N30" t="n">
+        <v>121.34</v>
+      </c>
+      <c r="O30" t="n">
+        <v>44900.33</v>
+      </c>
+      <c r="P30" t="n">
+        <v>480.55</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R30" t="n">
+        <v>121.71</v>
+      </c>
+      <c r="S30" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T30" t="n">
+        <v>10498.91</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X30" t="n">
+        <v>90.17</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>150</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>32.78</v>
+      </c>
+      <c r="F31" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="G31" t="n">
+        <v>134.15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I31" t="n">
+        <v>13</v>
+      </c>
+      <c r="J31" t="n">
+        <v>364.85</v>
+      </c>
+      <c r="K31" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="L31" t="n">
+        <v>30</v>
+      </c>
+      <c r="M31" t="n">
+        <v>11</v>
+      </c>
+      <c r="N31" t="n">
+        <v>123.02</v>
+      </c>
+      <c r="O31" t="n">
+        <v>45231.92</v>
+      </c>
+      <c r="P31" t="n">
+        <v>480.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R31" t="n">
+        <v>121.18</v>
+      </c>
+      <c r="S31" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T31" t="n">
+        <v>10235.48</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X31" t="n">
+        <v>90.73</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="n">
         <v>10</v>
       </c>
     </row>
